--- a/data/trans_dic/P3A$otraNOcobra-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P3A$otraNOcobra-Provincia-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.04659928724660097</v>
+        <v>0.04659928724660098</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.05357163081270767</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02593705672377292</v>
+        <v>0.02857092494975164</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03702837024595141</v>
+        <v>0.03701501557286208</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03634828200641316</v>
+        <v>0.03695133340240198</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07797537861544396</v>
+        <v>0.08382184718578438</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07533708899051456</v>
+        <v>0.07312410639236266</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06749026093723152</v>
+        <v>0.06945162428473806</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.0281148692582774</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.06445384056770144</v>
+        <v>0.06445384056770143</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.04655167174879354</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01543648715932763</v>
+        <v>0.01671946654091812</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04772500605084605</v>
+        <v>0.04974553820537873</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03708525649523586</v>
+        <v>0.03659727697432652</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04395550294584721</v>
+        <v>0.04685965841730777</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08306107421914206</v>
+        <v>0.08416187534714119</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0588507143164451</v>
+        <v>0.05901878528921799</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.03775463731305805</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.04644380184449647</v>
+        <v>0.04644380184449646</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.04235679316151299</v>
+        <v>0.04235679316151301</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02286562751021066</v>
+        <v>0.02404001177849203</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03309719161679379</v>
+        <v>0.033627517151917</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0321192759070771</v>
+        <v>0.03135587411721472</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05774691442797954</v>
+        <v>0.05828096049787028</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06333522084577217</v>
+        <v>0.06651975876371574</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05607385535179604</v>
+        <v>0.05489980611820967</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01422515416361669</v>
+        <v>0.01369704701810145</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03316755813254543</v>
+        <v>0.03324453187115434</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02744924164997891</v>
+        <v>0.02751525679574945</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04418060611355917</v>
+        <v>0.04345622385285151</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06288562039411751</v>
+        <v>0.06229823588502713</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04765533429808975</v>
+        <v>0.04692272847068749</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.0412935014218718</v>
+        <v>0.04129350142187178</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.03355526994985731</v>
+        <v>0.03355526994985732</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.03721282548647437</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02283080718903131</v>
+        <v>0.02344148907604727</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01976512077641652</v>
+        <v>0.02222863024350024</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02557117019769148</v>
+        <v>0.02551190565478936</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06956766078739092</v>
+        <v>0.07038298536802085</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0506304621172421</v>
+        <v>0.05263418586026127</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05343883055569247</v>
+        <v>0.05280490721481088</v>
       </c>
     </row>
     <row r="19">
@@ -842,10 +842,10 @@
         <v>0.04862368636878128</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.06931891372715808</v>
+        <v>0.06931891372715807</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.05883661180040809</v>
+        <v>0.05883661180040808</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03387561848290145</v>
+        <v>0.03287389708486776</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05377716038040693</v>
+        <v>0.05194464557202857</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04620011816713162</v>
+        <v>0.04756949060570033</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06738665503303093</v>
+        <v>0.06710615195561745</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.09354146068409901</v>
+        <v>0.09162796030489624</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.07386122322472029</v>
+        <v>0.07431894973838211</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01932436369847846</v>
+        <v>0.01864863758989481</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01939771229522994</v>
+        <v>0.01972108360674006</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02114322920096244</v>
+        <v>0.02139386209970745</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04380863226055021</v>
+        <v>0.04257668651875399</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03850398550867064</v>
+        <v>0.0398635004206629</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03700344931899392</v>
+        <v>0.03703799615382398</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.009308481235964594</v>
+        <v>0.01024168876149132</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01999790674000025</v>
+        <v>0.01960866768898915</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0171345302436734</v>
+        <v>0.0166850828999203</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02596121096104542</v>
+        <v>0.02591909683931439</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03797960388834679</v>
+        <v>0.03797748540137844</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.029424697917026</v>
+        <v>0.02955439920580076</v>
       </c>
     </row>
     <row r="28">
@@ -1010,7 +1010,7 @@
         <v>0.04246524877948674</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.03651752654509246</v>
+        <v>0.03651752654509247</v>
       </c>
     </row>
     <row r="29">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02566911227969762</v>
+        <v>0.02550841957791017</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.03775819779883305</v>
+        <v>0.03755090880979461</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.03313003311838535</v>
+        <v>0.03292345146399262</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.03593580649560927</v>
+        <v>0.03561959450647068</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.04777250185007053</v>
+        <v>0.04741277073446185</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.04028452132586065</v>
+        <v>0.040406821687683</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8270</v>
+        <v>9110</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>11703</v>
+        <v>11699</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>23078</v>
+        <v>23461</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>24862</v>
+        <v>26726</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>23811</v>
+        <v>23112</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>42850</v>
+        <v>44095</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8191</v>
+        <v>8872</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>26081</v>
+        <v>27186</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>39946</v>
+        <v>39420</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>23325</v>
+        <v>24866</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>45392</v>
+        <v>45994</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>63391</v>
+        <v>63572</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7211</v>
+        <v>7582</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>11754</v>
+        <v>11942</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>21537</v>
+        <v>21025</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18212</v>
+        <v>18381</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22493</v>
+        <v>23624</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>37599</v>
+        <v>36811</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5308</v>
+        <v>5111</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>13995</v>
+        <v>14028</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>21825</v>
+        <v>21878</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16486</v>
+        <v>16215</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>26535</v>
+        <v>26287</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>37891</v>
+        <v>37309</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4684</v>
+        <v>4810</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>4525</v>
+        <v>5089</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>11100</v>
+        <v>11075</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>14274</v>
+        <v>14441</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11590</v>
+        <v>12049</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>23198</v>
+        <v>22923</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>9170</v>
+        <v>8899</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>14184</v>
+        <v>13700</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>24692</v>
+        <v>25424</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>18242</v>
+        <v>18166</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>24672</v>
+        <v>24167</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>39476</v>
+        <v>39720</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>13907</v>
+        <v>13421</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>14976</v>
+        <v>15226</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>31540</v>
+        <v>31914</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>31529</v>
+        <v>30642</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>29727</v>
+        <v>30777</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>55200</v>
+        <v>55251</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>7429</v>
+        <v>8174</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>16625</v>
+        <v>16301</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>27919</v>
+        <v>27187</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>20719</v>
+        <v>20685</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>31574</v>
+        <v>31572</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>47945</v>
+        <v>48156</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>90655</v>
+        <v>90087</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>141054</v>
+        <v>140279</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>240768</v>
+        <v>239267</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>126913</v>
+        <v>125797</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>178464</v>
+        <v>177120</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>292763</v>
+        <v>293652</v>
       </c>
     </row>
     <row r="40">
